--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idris\eclipse-workspace\SeleniumFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1BB86D-C72C-4B9A-8C0D-92DDC656D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FB6D5-F5C5-4780-88E2-4BE10FADE755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{42042A0B-95A4-4543-9545-FD4FD22587A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,55 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>twenty</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>eleven</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ninety </t>
-  </si>
-  <si>
-    <t>nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nine </t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Demo@456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A82CA16-14B5-4B83-89AB-22C39D8AAEDD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,61 +450,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{62C73513-FCBF-4D23-8BC1-D2003A9F217D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F89B4C51-D8EA-4AE3-8B21-11372CCF5C51}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>